--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Atacama.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Atacama.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R995494d1c8d54fc1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Rb94f4b6333ca4c7b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31296</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2329859.2919222</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15050905.734375</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19917.802075</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31396</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2379002.1438399</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16521385.333333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19771.592254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31610</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2345607.2047769</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18889034.693548</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20408.725437</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31879</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2282922.1346027</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15590186.32258</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19635.022901</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32023</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2293007.4643537</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23697173.564516</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20968.700223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32181</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2305573.4775488</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31704721.262295</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22213.446295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32366</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2265900.9015633</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24712248.311475</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19991.884329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32575</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2232179.5766999</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16621378.475409</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20871.254755</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32704</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2276763.1457314</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14758721.655737</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21229.575568</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32996</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2266718.0483998</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14709427.354838</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22294.616788</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33245</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2263671.3233569</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12484881.04918</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22375.654704</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33356</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2356411.3563676</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12727178.033333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22561.739298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33499</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2366751.915281</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13711527.2</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23675.688438</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33621</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2387096.7842717</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14977723.516666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23500.434969</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33825</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2337803.6635328</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15399980.916666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21530.686382</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33991</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2289027.659351</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22574250.6</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23458.47801</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34369</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2301455.5791847</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21838939.59322</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25720.692708</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34514</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2302083.312308</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36899064.610169</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23381.593127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34671</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2204527.3060771</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26176942.901639</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23714.162754</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34817</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2192510.6837464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19126949.609375</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24087.989039</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34917</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2200364.4843486</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17490595.953846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23694.60684</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35072</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2146223.8572365</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27573429.476923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24498.007107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35256</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2109723.4811096</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32395379.897058</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24854.125622</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35437</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2190401.9578124</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19208694.797101</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26628.808166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35544</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2188304.3154962</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26476679.214285</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27705.894608</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35663</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2231954.8770714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31005443.549295</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27479.632136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35745</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2229814.4124492</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37186575.647887</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27738.706973</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35772</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2311342.513558</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44463892.985915</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28415.350093</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35832</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2350469.4545378</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41409852.352112</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30239.328696</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35917</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2415272.3442659</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22820819.479452</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30966.007073</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36146</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2399980.7530017</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35335262.364864</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31536.922557</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36457</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2402184.4123487</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45091031.88</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28846.884444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36680</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2402261.3711286</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34659851.878378</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30419.054905</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36935</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2366199.749208</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32235573.864864</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30628.886764</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37158</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2306687.2228591</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29896647.88</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28326.754153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37300</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2313666.3902949</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27341492.6</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32035.062718</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37434</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2326172.4458513</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24591243.480519</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32065.578297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37478</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2355116.6488873</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48982689.714285</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29437.609437</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37676</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2290144.0212336</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55420546.337662</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29267.043173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37818</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2232024.1940874</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53045034.666666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30734.163742</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37978</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2244705.2601242</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49777954.2875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30395.076356</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38086</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2227348.5095835</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62849421.5</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30710.205094</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38281</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2153811.0538126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>69071976.775</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31350.553778</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38407</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2107082.4321608</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54833680.746835</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30015.542058</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38456</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2148317.6545402</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43328511.2375</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32472.689975</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38530</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2101505.0663379</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35434061.45</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32309.746501</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38557</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1991922.7586949</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29399032.5</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30850.837564</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38598</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2075437.0220218</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27391087.057471</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34061.314938</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38118</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2129667.5636444</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28183586.476744</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33946.54289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38170</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2132971.0554362</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27885122.471264</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34027.860377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38461</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2122738.219339</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32484492.724137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34155.393159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2114217.9193065</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26327464.770114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36276.876125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38852</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2132531.7035931</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23451859.727272</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35741.066665</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38950</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2135011.944724</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26695476.465909</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37009.614874</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39168</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2086947.078993</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22754139.258427</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34950.072139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39409</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2075464.7522647</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20484456.526881</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35959.67506</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39644</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2152561.5708051</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21469655.709677</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39570.472206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39836</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2132505.2984737</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17167411.242718</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37231.346288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40056</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2126860.4409826</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16427164.075471</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38853.399291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40270</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2244839.3144524</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13000815.849056</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42752.546017</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40421</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2221501.5028326</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13242452.669724</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40177.760366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40598</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2232523.9530518</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13715951.699115</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42026.534003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40905</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2240346.1529641</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13151288.771929</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44041.198775</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41072</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2183452.9142238</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13542954.309734</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40586.352973</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41255</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2164563.4474366</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13843691.192982</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42073.954536</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41440</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2138125.8046573</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14027795.415929</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45246.307732</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41631</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2168035.4076049</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13126426.849557</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43043.028547</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41938</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2139724.6249463</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14419721.672566</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44897.161335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42134</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2177584.0671191</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11222737.401785</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45326.821177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42459</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2077802.1630985</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9496280.8828828</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43607.895326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42726</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2012165.7947619</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8561777.6486486</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45656.680160999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42963</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2103779.7432907</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8973951.1711711</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48993.872059</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43180</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2120219.5092403</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9779218.0272727</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47532.505742</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43410</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2130544.8289334</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8597177.1160714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48231.265318999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43662</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2132004.6245934</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10295757.285714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51427.399082</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43880</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2100683.9829535</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9852590.1061946</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49889.703771</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44196</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2112952.4682097</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14856514.646017</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52851.569124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44369</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2096961.0312605</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10397953.696428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53166.898367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44652</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2079946.9113365</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7115459.4778761</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49751.666404</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44863</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2062087.0806678</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6654585.0521739</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53085.997168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44951</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2116091.0755489</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5682342.4380952</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49947.95728</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2126356.5144243</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7315922.5619047</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54938.350388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45247</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2103451.5344442</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9853247.2264151</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55664.46176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45397</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2223097.3205498</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19371666.314814</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56438.988947</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45494</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2138874.5063524</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37344218.087719</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59863.587353</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45564</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2108960.822667</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5758752.4224137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60322.642132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45640</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2204950.9013584</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7488749.0847457</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60421.850136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45510</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2379728.8348494</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13087712.031746</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70622.309679</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45421</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2552389.781951</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11806298.271317</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73174.189787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45378</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2693451.3698267</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12173842.969924</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>72518.536635</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45371</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2832048.414626</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12804280.477941</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80141.222698</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45438</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3059901.164928</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12701388.678571</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>148664.359088</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45559</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3392797.6265721</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14151669.102739</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>153442.818089</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45814</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3458889.7981839</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13857196.733333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>138632.940754</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46103</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3384835.7845476</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19928370.328947</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>124806.658087</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46405</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3582089.2638939</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19917598.617834</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>181682.234953</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>172410.572506</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>159900.691117</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>150204.327482</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>158003.090947</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>213267.660789</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>198931.182101</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>197442.354187</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>187274.602417</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>185149.327015</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>180929.094478</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>173919.998865</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>174551.702261</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>160695.753106</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>155303.666641</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>149154.205049</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>146830.15214</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>139487.661083</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>135024.391357</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>131850.820468</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>127857.082452</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>126840.613816</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>124067.366315</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>118285.935561</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>130100.520807</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>120923.281079</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>119673.457239</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>117565.4384</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>120641.201189</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>114514.491761</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>114843.716246</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>107206.803857</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>108307.096409</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>109241.634645</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>105830.682266</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>107453.3402</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>112251.59332</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>110550.577548</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>112958.085389</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>115577.971196</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>113468.295178</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>115212.00482</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>115103.719284</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>111436.375331</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
